--- a/GeraRotina/GeraRotina/bin/Debug/output/teste2.xlsx
+++ b/GeraRotina/GeraRotina/bin/Debug/output/teste2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="143">
   <si>
     <t xml:space="preserve">Dia Mês</t>
   </si>
@@ -29,91 +29,418 @@
     <t xml:space="preserve">01/01/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">07:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/02/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:15</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30</t>
+    <t xml:space="preserve">08:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:09</t>
   </si>
   <si>
     <t xml:space="preserve">17:30</t>
   </si>
   <si>
-    <t xml:space="preserve">19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/05/2019</t>
+    <t xml:space="preserve">18:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:36</t>
   </si>
   <si>
     <t xml:space="preserve">01/06/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">07:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:26</t>
+  </si>
+  <si>
     <t xml:space="preserve">01/07/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">08:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:17</t>
+  </si>
+  <si>
     <t xml:space="preserve">01/08/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">07:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:04</t>
+  </si>
+  <si>
     <t xml:space="preserve">01/09/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">07:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:37</t>
+  </si>
+  <si>
     <t xml:space="preserve">01/10/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">07:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:01</t>
+  </si>
+  <si>
     <t xml:space="preserve">01/11/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:28</t>
   </si>
 </sst>
 </file>
@@ -364,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -378,7 +705,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -392,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -406,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -420,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -434,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -448,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -462,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -476,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -490,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -504,7 +831,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -518,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -532,7 +859,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -543,10 +870,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -557,10 +884,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -571,10 +898,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -585,10 +912,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -599,10 +926,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -613,10 +940,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -627,10 +954,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -641,10 +968,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -655,10 +982,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -669,10 +996,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -683,10 +1010,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -697,10 +1024,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -711,10 +1038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -725,10 +1052,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -739,10 +1066,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -753,10 +1080,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -767,10 +1094,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -781,10 +1108,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -795,10 +1122,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -809,10 +1136,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -823,10 +1150,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -837,10 +1164,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -851,10 +1178,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -865,10 +1192,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -879,10 +1206,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -893,10 +1220,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -907,10 +1234,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -921,10 +1248,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -935,10 +1262,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -949,10 +1276,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -963,10 +1290,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -977,10 +1304,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -991,10 +1318,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -1005,10 +1332,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -1019,10 +1346,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1033,10 +1360,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -1047,10 +1374,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -1061,10 +1388,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -1075,10 +1402,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -1089,10 +1416,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1103,10 +1430,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -1117,10 +1444,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -1131,10 +1458,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -1145,10 +1472,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -1159,10 +1486,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -1173,10 +1500,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -1187,10 +1514,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -1201,10 +1528,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1215,10 +1542,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -1229,10 +1556,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -1243,10 +1570,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -1257,10 +1584,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -1271,10 +1598,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1285,10 +1612,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -1299,10 +1626,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -1313,10 +1640,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -1327,10 +1654,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -1341,10 +1668,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -1355,10 +1682,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -1369,10 +1696,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
@@ -1383,10 +1710,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -1397,10 +1724,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -1411,10 +1738,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -1425,10 +1752,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -1439,10 +1766,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -1453,10 +1780,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -1467,10 +1794,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -1481,10 +1808,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -1495,10 +1822,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -1509,10 +1836,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
@@ -1523,10 +1850,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -1537,10 +1864,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -1551,10 +1878,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
@@ -1565,10 +1892,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -1579,10 +1906,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -1593,10 +1920,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -1607,10 +1934,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
@@ -1621,10 +1948,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -1635,10 +1962,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -1649,10 +1976,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -1663,10 +1990,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -1677,10 +2004,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -1691,10 +2018,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -1705,10 +2032,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -1719,10 +2046,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -1733,10 +2060,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
@@ -1747,10 +2074,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -1761,10 +2088,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -1775,10 +2102,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -1789,10 +2116,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -1803,10 +2130,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -1817,10 +2144,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -1831,10 +2158,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -1845,10 +2172,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -1859,10 +2186,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -1873,10 +2200,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -1887,10 +2214,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -1901,10 +2228,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -1915,7 +2242,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -1929,10 +2256,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -1943,10 +2270,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -1957,10 +2284,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -1971,10 +2298,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -1985,10 +2312,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
@@ -1999,10 +2326,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -2013,10 +2340,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -2027,10 +2354,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -2041,10 +2368,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
@@ -2055,10 +2382,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
@@ -2069,10 +2396,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
@@ -2083,10 +2410,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -2097,10 +2424,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
@@ -2111,10 +2438,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2125,10 +2452,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -2139,10 +2466,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -2153,10 +2480,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -2167,10 +2494,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>

--- a/GeraRotina/GeraRotina/bin/Debug/output/teste2.xlsx
+++ b/GeraRotina/GeraRotina/bin/Debug/output/teste2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="140">
   <si>
     <t xml:space="preserve">Dia Mês</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">01/01/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">07:12</t>
+    <t xml:space="preserve">07:25</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -38,409 +38,400 @@
     <t xml:space="preserve">Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">07:49</t>
+    <t xml:space="preserve">07:45</t>
   </si>
   <si>
     <t xml:space="preserve">Q</t>
   </si>
   <si>
+    <t xml:space="preserve">08:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/02/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:51</t>
+  </si>
+  <si>
     <t xml:space="preserve">08:39</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:04</t>
+    <t xml:space="preserve">08:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:06</t>
   </si>
   <si>
     <t xml:space="preserve">19:28</t>
   </si>
   <si>
-    <t xml:space="preserve">20:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:15</t>
+    <t xml:space="preserve">19:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:16</t>
   </si>
   <si>
     <t xml:space="preserve">19:10</t>
   </si>
   <si>
-    <t xml:space="preserve">19:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:20</t>
+    <t xml:space="preserve">19:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/11/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:53</t>
   </si>
   <si>
     <t xml:space="preserve">09:11</t>
   </si>
   <si>
-    <t xml:space="preserve">12:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/05/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/06/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/07/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/08/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/09/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:36</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:58</t>
   </si>
   <si>
-    <t xml:space="preserve">12:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/11/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:28</t>
+    <t xml:space="preserve">13:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:27</t>
   </si>
 </sst>
 </file>
@@ -761,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -775,7 +766,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -789,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -803,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -817,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -831,7 +822,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -845,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -859,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -870,13 +861,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -884,13 +875,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -898,13 +889,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -912,13 +903,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -926,13 +917,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -940,13 +931,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -954,13 +945,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -968,13 +959,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -982,13 +973,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -996,13 +987,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1010,13 +1001,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1024,13 +1015,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1038,13 +1029,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1052,13 +1043,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1066,13 +1057,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1080,13 +1071,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1094,13 +1085,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1108,13 +1099,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1122,13 +1113,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1136,13 +1127,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1150,13 +1141,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1164,13 +1155,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1178,13 +1169,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1192,13 +1183,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1206,13 +1197,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1220,13 +1211,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1234,10 +1225,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1248,13 +1239,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1262,13 +1253,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1276,10 +1267,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -1290,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1304,13 +1295,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1318,13 +1309,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1332,13 +1323,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1346,13 +1337,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1360,13 +1351,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1374,13 +1365,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1388,10 +1379,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -1402,13 +1393,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1416,13 +1407,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1430,13 +1421,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1444,13 +1435,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1458,13 +1449,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1472,13 +1463,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1486,13 +1477,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1500,13 +1491,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1514,13 +1505,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1528,13 +1519,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1542,13 +1533,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1556,13 +1547,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1570,10 +1561,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -1584,13 +1575,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1598,13 +1589,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1612,13 +1603,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -1626,13 +1617,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1640,13 +1631,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -1654,13 +1645,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1668,13 +1659,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1682,13 +1673,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1696,13 +1687,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -1710,13 +1701,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1724,13 +1715,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -1738,13 +1729,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -1752,10 +1743,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -1766,13 +1757,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -1780,13 +1771,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -1794,13 +1785,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -1808,13 +1799,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -1822,13 +1813,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -1836,13 +1827,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -1850,13 +1841,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -1864,13 +1855,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
-        <v>107</v>
-      </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -1878,13 +1869,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -1892,13 +1883,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -1906,13 +1897,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -1920,13 +1911,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -1934,10 +1925,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
@@ -1948,13 +1939,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -1962,13 +1953,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -1976,13 +1967,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -1990,13 +1981,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2004,13 +1995,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2018,13 +2009,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2032,13 +2023,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2046,13 +2037,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2060,13 +2051,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>120</v>
-      </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -2074,13 +2065,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2088,13 +2079,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2102,13 +2093,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2116,10 +2107,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -2130,13 +2121,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2144,13 +2135,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -2158,13 +2149,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2172,13 +2163,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2186,13 +2177,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2200,13 +2191,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -2214,13 +2205,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2228,13 +2219,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -2242,13 +2233,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -2256,13 +2247,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2270,13 +2261,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -2284,13 +2275,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2298,10 +2289,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
         <v>124</v>
-      </c>
-      <c r="B130" t="s">
-        <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -2312,13 +2303,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -2326,13 +2317,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -2340,13 +2331,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -2354,13 +2345,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
@@ -2368,13 +2359,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -2382,13 +2373,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2396,13 +2387,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" t="s">
         <v>131</v>
       </c>
-      <c r="B137" t="s">
-        <v>136</v>
-      </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -2410,13 +2401,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -2424,13 +2415,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -2438,13 +2429,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -2452,13 +2443,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -2466,13 +2457,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -2480,10 +2471,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -2494,15 +2485,71 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
         <v>7</v>
       </c>
     </row>
